--- a/output/MOMENTUM/rebalance/rebalance_20250122.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20250122.xlsx
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02560419460403743</v>
+        <v>0.02558420649171667</v>
       </c>
       <c r="C3" t="n">
         <v>0.02118769160894743</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.004416502995089999</v>
+        <v>-0.004396514882769233</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6390,13 +6390,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0221354662901237</v>
+        <v>0.02211771957493721</v>
       </c>
       <c r="C8" t="n">
         <v>0.02106279096173498</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.001072675328388714</v>
+        <v>-0.001054928613202225</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02457717557633906</v>
+        <v>0.02455712901836651</v>
       </c>
       <c r="C10" t="n">
         <v>0.02091518110593846</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.003661994470400592</v>
+        <v>-0.003641947912428046</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6474,13 +6474,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0223071538764606</v>
+        <v>0.02228949174734303</v>
       </c>
       <c r="C12" t="n">
         <v>0.02074486204155786</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.001562291834902745</v>
+        <v>-0.001544629705785176</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6495,13 +6495,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02582094352546512</v>
+        <v>0.02615233103320875</v>
       </c>
       <c r="C13" t="n">
         <v>0.02072215283297377</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.005098790692491348</v>
+        <v>-0.005430178200234975</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6663,13 +6663,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.023448982910992</v>
+        <v>0.02343099480378187</v>
       </c>
       <c r="C21" t="n">
         <v>0.02035880549562848</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.003090177415363521</v>
+        <v>-0.003072189308153391</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6684,13 +6684,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02172140849653385</v>
+        <v>0.02170477177072771</v>
       </c>
       <c r="C22" t="n">
         <v>0.02032474168275236</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.001396666813781491</v>
+        <v>-0.001380030087975347</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6705,13 +6705,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02193687262469226</v>
+        <v>0.02191990877599606</v>
       </c>
       <c r="C23" t="n">
         <v>0.02015442261837175</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.001782450006320501</v>
+        <v>-0.00176548615762431</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -7083,13 +7083,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01995675379566027</v>
+        <v>0.01994141380131873</v>
       </c>
       <c r="C41" t="n">
         <v>0.0191552174406722</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.0008015363549880757</v>
+        <v>-0.0007861963606465329</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01952470235914075</v>
+        <v>0.01950954039289521</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01952470235914075</v>
+        <v>-0.01950954039289521</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01999162485370144</v>
+        <v>0.01997581486918779</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01999162485370144</v>
+        <v>-0.01997581486918779</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0240756343800588</v>
+        <v>0.02405646611834269</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.0240756343800588</v>
+        <v>-0.02405646611834269</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01750737769090613</v>
+        <v>0.01749367254963963</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01750737769090613</v>
+        <v>-0.01749367254963963</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01903813988975808</v>
+        <v>0.01902296518954491</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01903813988975808</v>
+        <v>-0.01902296518954491</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7419,13 +7419,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01948011935388499</v>
+        <v>0.01946485920984637</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01948011935388499</v>
+        <v>-0.01946485920984637</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01781735927794635</v>
+        <v>0.01780360647381338</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01781735927794635</v>
+        <v>-0.01780360647381338</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.02117373523579993</v>
+        <v>0.02115731611088623</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02117373523579993</v>
+        <v>-0.02115731611088623</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01840463681706511</v>
+        <v>0.01839078315610796</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01840463681706511</v>
+        <v>-0.01839078315610796</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01944727613803363</v>
+        <v>0.0194321929476912</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01944727613803363</v>
+        <v>-0.0194321929476912</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01844574610966822</v>
+        <v>0.01843154919096683</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01844574610966822</v>
+        <v>-0.01843154919096683</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01966750098793846</v>
+        <v>0.01965173878224624</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01966750098793846</v>
+        <v>-0.01965173878224624</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7566,13 +7566,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02151949757802022</v>
+        <v>0.0215024986295255</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02151949757802022</v>
+        <v>-0.0215024986295255</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01804582080333576</v>
+        <v>0.01803158503373867</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01804582080333576</v>
+        <v>-0.01803158503373867</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01996472026504668</v>
+        <v>0.01994916171471757</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01996472026504668</v>
+        <v>-0.01994916171471757</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7629,13 +7629,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01884842528814882</v>
+        <v>0.01883365757839381</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01884842528814882</v>
+        <v>-0.01883365757839381</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7650,13 +7650,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01957200538997556</v>
+        <v>0.01955666997557085</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01957200538997556</v>
+        <v>-0.01955666997557085</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7671,13 +7671,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01919925765365069</v>
+        <v>0.01918438623167187</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01919925765365069</v>
+        <v>-0.01918438623167187</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01958369322791446</v>
+        <v>0.01956841760642882</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01958369322791446</v>
+        <v>-0.01956841760642882</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7713,13 +7713,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01915544380610871</v>
+        <v>0.01914049073853874</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01915544380610871</v>
+        <v>-0.01914049073853874</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7734,13 +7734,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01591060598196191</v>
+        <v>0.01589784834729749</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01591060598196191</v>
+        <v>-0.01589784834729749</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7755,13 +7755,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01800669586801475</v>
+        <v>0.01799280395669825</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01800669586801475</v>
+        <v>-0.01799280395669825</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7776,13 +7776,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01909696820320909</v>
+        <v>0.01908214783868462</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01909696820320909</v>
+        <v>-0.01908214783868462</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01962950271580629</v>
+        <v>0.01961426046582183</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01962950271580629</v>
+        <v>-0.01961426046582183</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7818,13 +7818,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.0203629425752036</v>
+        <v>0.02034714235020569</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.0203629425752036</v>
+        <v>-0.02034714235020569</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7839,13 +7839,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01925270391662487</v>
+        <v>0.01923741992604641</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01925270391662487</v>
+        <v>-0.01923741992604641</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7860,13 +7860,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01993384843047695</v>
+        <v>0.02034632871521462</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.01993384843047695</v>
+        <v>-0.02034632871521462</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7881,13 +7881,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01920063980595649</v>
+        <v>0.01918553619687047</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01920063980595649</v>
+        <v>-0.01918553619687047</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01852750994951615</v>
+        <v>0.01851322766565789</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01852750994951615</v>
+        <v>-0.01851322766565789</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7923,13 +7923,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01851496474207005</v>
+        <v>0.018500799337398</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01851496474207005</v>
+        <v>-0.018500799337398</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.01959068416593341</v>
+        <v>0.0195753177852651</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01959068416593341</v>
+        <v>-0.0195753177852651</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7965,13 +7965,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01830404784391864</v>
+        <v>0.01828991712966936</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.01830404784391864</v>
+        <v>-0.01828991712966936</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -7986,13 +7986,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.02150311160181962</v>
+        <v>0.02148653992533057</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.02150311160181962</v>
+        <v>-0.02148653992533057</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8007,13 +8007,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01787699701032024</v>
+        <v>0.01786300748942718</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01787699701032024</v>
+        <v>-0.01786300748942718</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8028,13 +8028,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.02055307618786086</v>
+        <v>0.02053748099907346</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.02055307618786086</v>
+        <v>-0.02053748099907346</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8049,13 +8049,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.0190605570656842</v>
+        <v>0.01904579578483793</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.0190605570656842</v>
+        <v>-0.01904579578483793</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8070,13 +8070,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01777834136267402</v>
+        <v>0.0177646540080243</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.01777834136267402</v>
+        <v>-0.0177646540080243</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8091,13 +8091,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.02200675251901399</v>
+        <v>0.02198987765746973</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.02200675251901399</v>
+        <v>-0.02198987765746973</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.01880447109579125</v>
+        <v>0.01878995844713795</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.01880447109579125</v>
+        <v>-0.01878995844713795</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -8133,13 +8133,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.0177301743653628</v>
+        <v>0.01771634682776285</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.0177301743653628</v>
+        <v>-0.01771634682776285</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -8154,13 +8154,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.02038373578637372</v>
+        <v>0.02036824962895535</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.02038373578637372</v>
+        <v>-0.02036824962895535</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>

--- a/output/MOMENTUM/rebalance/rebalance_20250122.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20250122.xlsx
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02558420649171667</v>
+        <v>0.02563697187242179</v>
       </c>
       <c r="C3" t="n">
         <v>0.02118769160894743</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.004396514882769233</v>
+        <v>-0.004449280263474353</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6390,13 +6390,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02211771957493721</v>
+        <v>0.02216380305800978</v>
       </c>
       <c r="C8" t="n">
         <v>0.02106279096173498</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.001054928613202225</v>
+        <v>-0.001101012096274799</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02455712901836651</v>
+        <v>0.0246086381039621</v>
       </c>
       <c r="C10" t="n">
         <v>0.02091518110593846</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.003641947912428046</v>
+        <v>-0.003693456998023634</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6474,13 +6474,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02228949174734303</v>
+        <v>0.02233571043060368</v>
       </c>
       <c r="C12" t="n">
         <v>0.02074486204155786</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.001544629705785176</v>
+        <v>-0.001590848389045826</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6495,13 +6495,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02615233103320875</v>
+        <v>0.02550176395668387</v>
       </c>
       <c r="C13" t="n">
         <v>0.02072215283297377</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.005430178200234975</v>
+        <v>-0.004779611123710097</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6663,13 +6663,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02343099480378187</v>
+        <v>0.02347900118018969</v>
       </c>
       <c r="C21" t="n">
         <v>0.02035880549562848</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.003072189308153391</v>
+        <v>-0.003120195684561202</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6684,13 +6684,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02170477177072771</v>
+        <v>0.02174921520738681</v>
       </c>
       <c r="C22" t="n">
         <v>0.02032474168275236</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.001380030087975347</v>
+        <v>-0.001424473524634449</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6705,13 +6705,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02191990877599606</v>
+        <v>0.02196495516244252</v>
       </c>
       <c r="C23" t="n">
         <v>0.02015442261837175</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.00176548615762431</v>
+        <v>-0.001810532544070764</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -7083,13 +7083,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01994141380131873</v>
+        <v>0.01998230147975489</v>
       </c>
       <c r="C41" t="n">
         <v>0.0191552174406722</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.0007861963606465329</v>
+        <v>-0.0008270840390826872</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01950954039289521</v>
+        <v>0.01954969695159903</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01950954039289521</v>
+        <v>-0.01954969695159903</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01997581486918779</v>
+        <v>0.0200172171780609</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01997581486918779</v>
+        <v>-0.0200172171780609</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02405646611834269</v>
+        <v>0.02410645485857035</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02405646611834269</v>
+        <v>-0.02410645485857035</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01749367254963963</v>
+        <v>0.01752978980056844</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01749367254963963</v>
+        <v>-0.01752978980056844</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01902296518954491</v>
+        <v>0.01906251160815639</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01902296518954491</v>
+        <v>-0.01906251160815639</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7419,13 +7419,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01946485920984637</v>
+        <v>0.01950505687330695</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01946485920984637</v>
+        <v>-0.01950505687330695</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01780360647381338</v>
+        <v>0.01784016821124753</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01780360647381338</v>
+        <v>-0.01784016821124753</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.02115731611088623</v>
+        <v>0.02120084084147337</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02115731611088623</v>
+        <v>-0.02120084084147337</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01839078315610796</v>
+        <v>0.0179290363408675</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01839078315610796</v>
+        <v>-0.0179290363408675</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0194321929476912</v>
+        <v>0.01947217161313755</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.0194321929476912</v>
+        <v>-0.01947217161313755</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01843154919096683</v>
+        <v>0.01846935947381171</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01843154919096683</v>
+        <v>-0.01846935947381171</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01965173878224624</v>
+        <v>0.01969267838438856</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01965173878224624</v>
+        <v>-0.01969267838438856</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7566,13 +7566,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0215024986295255</v>
+        <v>0.02154704581214825</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.0215024986295255</v>
+        <v>-0.02154704581214825</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01803158503373867</v>
+        <v>0.01806892220218209</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01803158503373867</v>
+        <v>-0.01806892220218209</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01994916171471757</v>
+        <v>0.01999027814743533</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01994916171471757</v>
+        <v>-0.01999027814743533</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7629,13 +7629,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01883365757839381</v>
+        <v>0.01887255414296524</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01883365757839381</v>
+        <v>-0.01887255414296524</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7650,13 +7650,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01955666997557085</v>
+        <v>0.01959706053751713</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01955666997557085</v>
+        <v>-0.01959706053751713</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7671,13 +7671,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01918438623167187</v>
+        <v>0.01922383562732361</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01918438623167187</v>
+        <v>-0.01922383562732361</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01956841760642882</v>
+        <v>0.01960876333766854</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01956841760642882</v>
+        <v>-0.01960876333766854</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7713,13 +7713,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01914049073853874</v>
+        <v>0.0191799656913843</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.01914049073853874</v>
+        <v>-0.0191799656913843</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7734,13 +7734,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01589784834729749</v>
+        <v>0.01593097398066266</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01589784834729749</v>
+        <v>-0.01593097398066266</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7755,13 +7755,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01799280395669825</v>
+        <v>0.01802974718098549</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01799280395669825</v>
+        <v>-0.01802974718098549</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7776,13 +7776,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01908214783868462</v>
+        <v>0.01912141523080767</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01908214783868462</v>
+        <v>-0.01912141523080767</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01961426046582183</v>
+        <v>0.01965463146868125</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01961426046582183</v>
+        <v>-0.01965463146868125</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7818,13 +7818,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.02034714235020569</v>
+        <v>0.02038901024279498</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.02034714235020569</v>
+        <v>-0.02038901024279498</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7839,13 +7839,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01923741992604641</v>
+        <v>0.01927735030965379</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01923741992604641</v>
+        <v>-0.01927735030965379</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7860,13 +7860,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.02034632871521462</v>
+        <v>0.01953061002408675</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.02034632871521462</v>
+        <v>-0.01953061002408675</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7881,13 +7881,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01918553619687047</v>
+        <v>0.01922521954899485</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01918553619687047</v>
+        <v>-0.01922521954899485</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01851322766565789</v>
+        <v>0.01855122798382658</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01851322766565789</v>
+        <v>-0.01855122798382658</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7923,13 +7923,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.018500799337398</v>
+        <v>0.01853866671660442</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.018500799337398</v>
+        <v>-0.01853866671660442</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0195753177852651</v>
+        <v>0.01961576322515281</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.0195753177852651</v>
+        <v>-0.01961576322515281</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7965,13 +7965,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01828991712966936</v>
+        <v>0.0183274798127026</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.01828991712966936</v>
+        <v>-0.0183274798127026</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -7986,13 +7986,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.02148653992533057</v>
+        <v>0.02153063885940265</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.02148653992533057</v>
+        <v>-0.02153063885940265</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8007,13 +8007,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01786300748942718</v>
+        <v>0.01789988228900116</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01786300748942718</v>
+        <v>-0.01789988228900116</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8028,13 +8028,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.02053748099907346</v>
+        <v>0.02057938725543208</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.02053748099907346</v>
+        <v>-0.02057938725543208</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8049,13 +8049,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01904579578483793</v>
+        <v>0.01908495748148164</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01904579578483793</v>
+        <v>-0.01908495748148164</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8070,13 +8070,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.0177646540080243</v>
+        <v>0.01780110034710157</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.0177646540080243</v>
+        <v>-0.01780110034710157</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8091,13 +8091,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.02198987765746973</v>
+        <v>0.02203492451367107</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.02198987765746973</v>
+        <v>-0.02203492451367107</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.01878995844713795</v>
+        <v>0.01882854368254761</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.01878995844713795</v>
+        <v>-0.01882854368254761</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -8133,13 +8133,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.01771634682776285</v>
+        <v>0.01775287168869838</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.01771634682776285</v>
+        <v>-0.01775287168869838</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -8154,13 +8154,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.02036824962895535</v>
+        <v>0.020409830072442</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.02036824962895535</v>
+        <v>-0.020409830072442</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
